--- a/biology/Médecine/Ligne_blanche_(abdomen)/Ligne_blanche_(abdomen).xlsx
+++ b/biology/Médecine/Ligne_blanche_(abdomen)/Ligne_blanche_(abdomen).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La ligne blanche (linea alba en latin) est une structure fibreuse située chez les mammifères sur la ligne médiane de l'abdomen, passant notamment sous le nombril. 
 </t>
@@ -511,7 +523,9 @@
           <t>Nature du tissu</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Elle est composée principalement d'un tissu conjonctif de collagène.
 </t>
@@ -542,7 +556,9 @@
           <t>Vulnérabilité</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Au-dessus de l'ombilic, la ligne blanche est plus large et plus mince, et donc plus fragile que dans la partie inférieure où elle est plus étroite et plus dense. 
 Son point le plus fragile est constitué par la cicatrice ombilicale qui se présente comme un orifice annulaire comblé par le tissu cicatriciel résultant de la convergence des éléments oblitérés du cordon ombilical : le ligament rond (ex. : veine ombilicale), l'ouraque et les artères ombilicales.
